--- a/Config_Sheet/Automated_Configuration_Table_Template.xlsx
+++ b/Config_Sheet/Automated_Configuration_Table_Template.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10350\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonproject\AutoDev\Network_Automation_and_Operations\Config_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F06C66-D4B9-4213-9E77-AB41EFCF0D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA697C2F-CDE3-47EA-90AC-D1216F004703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init_Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Port_IP_Sheet(Router)" sheetId="2" r:id="rId2"/>
+    <sheet name="Port_IP_Sheet(Router)" sheetId="6" r:id="rId2"/>
     <sheet name="IP_Route_Static_Sheet" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -260,12 +260,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,9 +284,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{D5E1114C-D9DC-4351-B2CE-D4E3F03C2646}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -550,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -661,105 +674,106 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EAE65B-2111-44B9-945E-5D566DA73EC3}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.08984375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -772,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
